--- a/biology/Médecine/Adénome_colorectal/Adénome_colorectal.xlsx
+++ b/biology/Médecine/Adénome_colorectal/Adénome_colorectal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_colorectal</t>
+          <t>Adénome_colorectal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polypes adénomateux colorectaux, adénomes colorectaux ou polype adénomateux, s'observent le plus souvent sur le rectosigmoïde avec une fréquence maximale entre 50 et 60 ans. Ils réalisent une formation en saillie sur la muqueuse, arrondie ou polylobée, de 2 à 10 mm de diamètre, sessile ou pédiculée, le pédicule pouvant être très long (5 cm et plus). Ils prédisposent à l'adénocarcinome colorectal (cancer colorectal).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_colorectal</t>
+          <t>Adénome_colorectal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types macroscopiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adénome colorectal sessile (voir polype sessile)
 Adénome colorectal pédiculé (voir polype pédiculé)
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_colorectal</t>
+          <t>Adénome_colorectal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adénome tubuleux
-L'adénome tubuleux est constitué d'une prolifération de glandes identiques aux glandes de Lieberkühn dont elles naissent. Les cellules sont cylindriques, avec une mucosécrétion sous forme d'une vacuole ouverte au pôle apical. Il peut exister une dédifférenciation marquée par une diminution ou une disparition de la mucosécrétion et un aspect basophile du cytoplasme.
-Adénome villeux
-Les adénome villeux, plus rares, forment des masses sessiles ou polypoïdes, molles, recouvertes de mucus, et constituées de fines digitations. Elles sont constitués d'axes conjonctifs recouverts d'une couche de cellules épithéliales cylindriques et mucosecrétantes, comportant ou non une mucosécrétion comme l'épithélium colique superficiel dont elles dérivent.
-Comme les adénomes tubuleux, les tumeurs villeuses peuvent présenter des aspects dédifférenciés. Les récidives après exérèse sont très fréquentes.
-Adénome tubulo-villeux
-Les adénome tubulo-villeux sont mixtes, à la fois tubuleux et villeux.
-Adénome festonné
-L'adénome festonné est également un sous-type de polype festonné.
-Adénome mixte
-Il est mixte entre un adénome tubuleux/villeux et un adénome festonné est également un sous-type de polype festonné.
+          <t>Adénome tubuleux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adénome tubuleux est constitué d'une prolifération de glandes identiques aux glandes de Lieberkühn dont elles naissent. Les cellules sont cylindriques, avec une mucosécrétion sous forme d'une vacuole ouverte au pôle apical. Il peut exister une dédifférenciation marquée par une diminution ou une disparition de la mucosécrétion et un aspect basophile du cytoplasme.
 </t>
         </is>
       </c>
@@ -566,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_colorectal</t>
+          <t>Adénome_colorectal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Grade</t>
+          <t>Types microscopiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dysplasie de bas grade
-Dysplasie de haut grade</t>
+          <t>Adénome villeux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adénome villeux, plus rares, forment des masses sessiles ou polypoïdes, molles, recouvertes de mucus, et constituées de fines digitations. Elles sont constitués d'axes conjonctifs recouverts d'une couche de cellules épithéliales cylindriques et mucosecrétantes, comportant ou non une mucosécrétion comme l'épithélium colique superficiel dont elles dérivent.
+Comme les adénomes tubuleux, les tumeurs villeuses peuvent présenter des aspects dédifférenciés. Les récidives après exérèse sont très fréquentes.
+</t>
         </is>
       </c>
     </row>
@@ -597,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome_colorectal</t>
+          <t>Adénome_colorectal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,27 +629,276 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Types microscopiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Adénome tubulo-villeux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adénome tubulo-villeux sont mixtes, à la fois tubuleux et villeux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types microscopiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adénome festonné</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adénome festonné est également un sous-type de polype festonné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types microscopiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adénome mixte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est mixte entre un adénome tubuleux/villeux et un adénome festonné est également un sous-type de polype festonné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dysplasie de bas grade
+Dysplasie de haut grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Transformation - Cancérisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Au cours de la progression tumorale, certains adénomes peuvent se transformer (se cancériser) avec apparition dans un adénome siège d'une dysplasie de haut grade, d'un foyer d'adénocarcinome colorectal invasif envahissant la muqueuse (« polype malin »). Un foyer de cancérisation est observé dans 5 à 10 % des polypectomies coliques par voie endoscopique. Il peut s'agir d'un envahissement de la muqueuse (TNM pTis) ou de la sous-muqueuse (pT1).
-Le risque de métastase ganglionnaire est dépendant de la morphologie du polype. Pour les adénomes pédiculés transformés, le risque est de 0 % pour les formes intra-muqueuses (pTis) et de 10 - 15 % pour les formes envahissant la sous-muqueuse (pT1). Il est de respectivement 0 % et 27 % pour les adénomes plans transformés [1].
-Adénome pédiculé cancérisé
-En fonction de l'invasion de l'axe et du pied du polype, ils sont classées selon Haggitt
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la progression tumorale, certains adénomes peuvent se transformer (se cancériser) avec apparition dans un adénome siège d'une dysplasie de haut grade, d'un foyer d'adénocarcinome colorectal invasif envahissant la muqueuse (« polype malin »). Un foyer de cancérisation est observé dans 5 à 10 % des polypectomies coliques par voie endoscopique. Il peut s'agir d'un envahissement de la muqueuse (TNM pTis) ou de la sous-muqueuse (pT1).
+Le risque de métastase ganglionnaire est dépendant de la morphologie du polype. Pour les adénomes pédiculés transformés, le risque est de 0 % pour les formes intra-muqueuses (pTis) et de 10 - 15 % pour les formes envahissant la sous-muqueuse (pT1). Il est de respectivement 0 % et 27 % pour les adénomes plans transformés .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Transformation - Cancérisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adénome pédiculé cancérisé</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>En fonction de l'invasion de l'axe et du pied du polype, ils sont classées selon Haggitt
 0 : intramuqueux (pTis)
 1 : superficiel - 1/3 supérieur de l'axe (équivalent du pTis m)
 2 : partie moyenne et inférieure du pédicule du polype
 3 : partie inférieure du pédicule, sous le collet
-4 : extension à la sous-muqueuse colique
-Adénome sessile cancérisé
-En fonction de la profondeur de l'envahissement, on distingue:
+4 : extension à la sous-muqueuse colique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Transformation - Cancérisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Adénome sessile cancérisé</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>En fonction de la profondeur de l'envahissement, on distingue:
 SM1 (si l'adénocarcinome mesure moins de 1 mm)
 SM2 (si l'adénocarcinome mesure plus de 1 mm)
-Taille non évaluable
-Différenciation
-L'adénocarcinome colorectal sur polype adénomateux peut-être:
+Taille non évaluable</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Transformation - Cancérisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Différenciation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L'adénocarcinome colorectal sur polype adénomateux peut-être:
 un adénocarcinome Lieberkuhnien bien différencié
 un adénocarcinome Lieberkuhnien moyennement différencié
 un adénocarcinome Lieberkuhnien peu différencié
@@ -640,31 +906,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ad%C3%A9nome_colorectal</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Adénome_colorectal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ad%C3%A9nome_colorectal</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Le traitement est endoscopique: rectosigmoïdoscopie ou coloscopie. 
 Polypectomie (Ablation à la pince biopsiqueen plusieurs fragments biopsiques)
